--- a/data/coded_segments/zm_5_4.xlsx
+++ b/data/coded_segments/zm_5_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F87F4C3-DE5B-F445-B68D-A825865B50BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB75A39D-BDB1-A140-A1C1-48A12557492B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="710">
   <si>
     <t>Color</t>
   </si>
@@ -2198,6 +2198,15 @@
   </si>
   <si>
     <t>21</t>
+  </si>
+  <si>
+    <t>1: 1211</t>
+  </si>
+  <si>
+    <t>1: 1214</t>
+  </si>
+  <si>
+    <t>11/14/18 13:11:00</t>
   </si>
 </sst>
 </file>
@@ -2662,7 +2671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M262"/>
+  <dimension ref="A1:M263"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13420,6 +13429,47 @@
         <v>698</v>
       </c>
     </row>
+    <row r="263" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="J263" s="3">
+        <v>4</v>
+      </c>
+      <c r="K263" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/zm_5_4.xlsx
+++ b/data/coded_segments/zm_5_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB75A39D-BDB1-A140-A1C1-48A12557492B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE61ED96-2D57-944D-8DB0-59B78273B031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="725">
   <si>
     <t>Color</t>
   </si>
@@ -853,12 +853,21 @@
     <t>7/9/18 13:01:00</t>
   </si>
   <si>
-    <t>2: 309</t>
+    <t>2: 308</t>
   </si>
   <si>
     <t>2: 310</t>
   </si>
   <si>
+    <t xml:space="preserve"> 16</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/30/19 18:30:30</t>
+  </si>
+  <si>
     <t>2: 312</t>
   </si>
   <si>
@@ -917,12 +926,6 @@
   </si>
   <si>
     <t>7/9/18 13:03:00</t>
-  </si>
-  <si>
-    <t>2: 308</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16</t>
   </si>
   <si>
     <t>7/9/18 13:04:00</t>
@@ -2207,6 +2210,48 @@
   </si>
   <si>
     <t>11/14/18 13:11:00</t>
+  </si>
+  <si>
+    <t>1/30/19 18:28:49</t>
+  </si>
+  <si>
+    <t>1/30/19 18:28:59</t>
+  </si>
+  <si>
+    <t>1/30/19 18:29:09</t>
+  </si>
+  <si>
+    <t>1/30/19 18:29:14</t>
+  </si>
+  <si>
+    <t>1/30/19 18:29:18</t>
+  </si>
+  <si>
+    <t>1/30/19 18:29:27</t>
+  </si>
+  <si>
+    <t>1/30/19 18:30:03</t>
+  </si>
+  <si>
+    <t>1/30/19 18:30:15</t>
+  </si>
+  <si>
+    <t>1/30/19 18:30:57</t>
+  </si>
+  <si>
+    <t>1/30/19 18:31:07</t>
+  </si>
+  <si>
+    <t>1/30/19 18:31:12</t>
+  </si>
+  <si>
+    <t>1/30/19 18:31:20</t>
+  </si>
+  <si>
+    <t>1/30/19 18:31:24</t>
+  </si>
+  <si>
+    <t>1/30/19 18:31:36</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M263"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6772,19 +6817,19 @@
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>88</v>
+        <v>278</v>
       </c>
       <c r="J100" s="3">
         <v>2</v>
       </c>
       <c r="K100" s="4">
-        <v>8.6429999999999996E-3</v>
+        <v>8.6434158779549689E-3</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6804,10 +6849,10 @@
         <v>73</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -6845,10 +6890,10 @@
         <v>73</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -6886,10 +6931,10 @@
         <v>73</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
@@ -6927,10 +6972,10 @@
         <v>73</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
@@ -6968,16 +7013,16 @@
         <v>73</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J105" s="3">
         <v>3</v>
@@ -7009,16 +7054,16 @@
         <v>73</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J106" s="3">
         <v>4</v>
@@ -7050,16 +7095,16 @@
         <v>73</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J107" s="3">
         <v>1</v>
@@ -7071,7 +7116,7 @@
         <v>20</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7091,7 +7136,7 @@
         <v>102</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>261</v>
@@ -7100,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="J108" s="3">
         <v>5</v>
@@ -7112,7 +7157,7 @@
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7153,7 +7198,7 @@
         <v>20</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7194,7 +7239,7 @@
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7235,7 +7280,7 @@
         <v>20</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7276,7 +7321,7 @@
         <v>20</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7317,7 +7362,7 @@
         <v>20</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7358,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7399,7 +7444,7 @@
         <v>20</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7440,7 +7485,7 @@
         <v>20</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7481,7 +7526,7 @@
         <v>20</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7501,7 +7546,7 @@
         <v>114</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>277</v>
@@ -7510,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="J118" s="3">
         <v>2</v>
@@ -7522,7 +7567,7 @@
         <v>20</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7563,7 +7608,7 @@
         <v>20</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7604,7 +7649,7 @@
         <v>20</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7624,10 +7669,10 @@
         <v>117</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H121" s="3">
         <v>0</v>
@@ -7645,7 +7690,7 @@
         <v>20</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7665,10 +7710,10 @@
         <v>118</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H122" s="3">
         <v>0</v>
@@ -7686,7 +7731,7 @@
         <v>20</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7727,7 +7772,7 @@
         <v>20</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7768,7 +7813,7 @@
         <v>20</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7788,10 +7833,10 @@
         <v>119</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H125" s="3">
         <v>0</v>
@@ -7809,7 +7854,7 @@
         <v>20</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7829,10 +7874,10 @@
         <v>120</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H126" s="3">
         <v>0</v>
@@ -7850,7 +7895,7 @@
         <v>20</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7891,7 +7936,7 @@
         <v>20</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7932,7 +7977,7 @@
         <v>20</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7952,10 +7997,10 @@
         <v>122</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H129" s="3">
         <v>0</v>
@@ -7973,7 +8018,7 @@
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -7993,16 +8038,16 @@
         <v>123</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H130" s="3">
         <v>0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="J130" s="3">
         <v>3</v>
@@ -8014,7 +8059,7 @@
         <v>20</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8055,7 +8100,7 @@
         <v>20</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8075,16 +8120,16 @@
         <v>126</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H132" s="3">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="J132" s="3">
         <v>4</v>
@@ -8096,7 +8141,7 @@
         <v>20</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8137,7 +8182,7 @@
         <v>20</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8160,13 +8205,13 @@
         <v>253</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H134" s="3">
         <v>0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="J134" s="3">
         <v>10</v>
@@ -8178,7 +8223,7 @@
         <v>20</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8198,10 +8243,10 @@
         <v>127</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H135" s="3">
         <v>0</v>
@@ -8219,7 +8264,7 @@
         <v>20</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8239,7 +8284,7 @@
         <v>128</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>257</v>
@@ -8248,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J136" s="3">
         <v>11</v>
@@ -8260,7 +8305,7 @@
         <v>20</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8280,16 +8325,16 @@
         <v>128</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H137" s="3">
         <v>0</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="J137" s="3">
         <v>1</v>
@@ -8301,7 +8346,7 @@
         <v>20</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8321,16 +8366,16 @@
         <v>137</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H138" s="3">
         <v>0</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J138" s="3">
         <v>20</v>
@@ -8342,7 +8387,7 @@
         <v>20</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8362,16 +8407,16 @@
         <v>141</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H139" s="3">
         <v>0</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J139" s="3">
         <v>6</v>
@@ -8383,7 +8428,7 @@
         <v>20</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8403,16 +8448,16 @@
         <v>141</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H140" s="3">
         <v>0</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J140" s="3">
         <v>6</v>
@@ -8424,7 +8469,7 @@
         <v>20</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8444,16 +8489,16 @@
         <v>141</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H141" s="3">
         <v>0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J141" s="3">
         <v>5</v>
@@ -8465,7 +8510,7 @@
         <v>20</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8485,16 +8530,16 @@
         <v>141</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H142" s="3">
         <v>0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J142" s="3">
         <v>5</v>
@@ -8506,7 +8551,7 @@
         <v>20</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8526,16 +8571,16 @@
         <v>141</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H143" s="3">
         <v>0</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J143" s="3">
         <v>7</v>
@@ -8547,7 +8592,7 @@
         <v>20</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8567,16 +8612,16 @@
         <v>150</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H144" s="3">
         <v>0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J144" s="3">
         <v>5</v>
@@ -8588,7 +8633,7 @@
         <v>20</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8608,16 +8653,16 @@
         <v>154</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H145" s="3">
         <v>0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J145" s="3">
         <v>9</v>
@@ -8629,7 +8674,7 @@
         <v>20</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8649,16 +8694,16 @@
         <v>158</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H146" s="3">
         <v>0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J146" s="3">
         <v>39</v>
@@ -8670,7 +8715,7 @@
         <v>20</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8690,16 +8735,16 @@
         <v>133</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H147" s="3">
         <v>0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J147" s="3">
         <v>10</v>
@@ -8711,7 +8756,7 @@
         <v>20</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8719,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>14</v>
@@ -8731,16 +8776,16 @@
         <v>133</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H148" s="3">
         <v>0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J148" s="3">
         <v>6</v>
@@ -8752,7 +8797,7 @@
         <v>20</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -8766,22 +8811,22 @@
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H149" s="3">
         <v>0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J149" s="3">
         <v>115</v>
@@ -8793,7 +8838,7 @@
         <v>20</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8807,22 +8852,22 @@
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H150" s="3">
         <v>0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J150" s="3">
         <v>100</v>
@@ -8834,7 +8879,7 @@
         <v>20</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -8848,22 +8893,22 @@
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H151" s="3">
         <v>0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J151" s="3">
         <v>68</v>
@@ -8875,7 +8920,7 @@
         <v>20</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -8889,22 +8934,22 @@
         <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H152" s="3">
         <v>0</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J152" s="3">
         <v>120</v>
@@ -8916,7 +8961,7 @@
         <v>20</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8930,22 +8975,22 @@
         <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H153" s="3">
         <v>0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J153" s="3">
         <v>4</v>
@@ -8957,7 +9002,7 @@
         <v>20</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -8971,22 +9016,22 @@
         <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H154" s="3">
         <v>0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J154" s="3">
         <v>8</v>
@@ -8998,7 +9043,7 @@
         <v>20</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9012,22 +9057,22 @@
         <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J155" s="3">
         <v>11</v>
@@ -9039,7 +9084,7 @@
         <v>20</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9053,22 +9098,22 @@
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H156" s="3">
         <v>0</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J156" s="3">
         <v>10</v>
@@ -9080,7 +9125,7 @@
         <v>20</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9094,22 +9139,22 @@
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H157" s="3">
         <v>0</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J157" s="3">
         <v>11</v>
@@ -9121,7 +9166,7 @@
         <v>20</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9135,22 +9180,22 @@
         <v>14</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H158" s="3">
         <v>0</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J158" s="3">
         <v>10</v>
@@ -9162,7 +9207,7 @@
         <v>20</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9176,22 +9221,22 @@
         <v>14</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J159" s="3">
         <v>10</v>
@@ -9203,7 +9248,7 @@
         <v>20</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9217,22 +9262,22 @@
         <v>14</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J160" s="3">
         <v>12</v>
@@ -9244,7 +9289,7 @@
         <v>20</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9258,22 +9303,22 @@
         <v>14</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H161" s="3">
         <v>0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J161" s="3">
         <v>11</v>
@@ -9285,7 +9330,7 @@
         <v>20</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9299,22 +9344,22 @@
         <v>14</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H162" s="3">
         <v>0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J162" s="3">
         <v>11</v>
@@ -9326,7 +9371,7 @@
         <v>20</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9340,22 +9385,22 @@
         <v>14</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H163" s="3">
         <v>0</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J163" s="3">
         <v>16</v>
@@ -9367,7 +9412,7 @@
         <v>20</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9381,22 +9426,22 @@
         <v>14</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H164" s="3">
         <v>0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J164" s="3">
         <v>4</v>
@@ -9408,7 +9453,7 @@
         <v>20</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9422,22 +9467,22 @@
         <v>14</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H165" s="3">
         <v>0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J165" s="3">
         <v>7</v>
@@ -9449,7 +9494,7 @@
         <v>20</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9463,22 +9508,22 @@
         <v>14</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H166" s="3">
         <v>0</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J166" s="3">
         <v>11</v>
@@ -9490,7 +9535,7 @@
         <v>20</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9504,22 +9549,22 @@
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H167" s="3">
         <v>0</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J167" s="3">
         <v>3</v>
@@ -9531,7 +9576,7 @@
         <v>20</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9545,22 +9590,22 @@
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H168" s="3">
         <v>0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="J168" s="3">
         <v>14</v>
@@ -9572,7 +9617,7 @@
         <v>20</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9586,22 +9631,22 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H169" s="3">
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J169" s="3">
         <v>18</v>
@@ -9613,7 +9658,7 @@
         <v>20</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9627,22 +9672,22 @@
         <v>14</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H170" s="3">
         <v>0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="J170" s="3">
         <v>12</v>
@@ -9654,7 +9699,7 @@
         <v>20</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -9668,22 +9713,22 @@
         <v>14</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J171" s="3">
         <v>190</v>
@@ -9695,7 +9740,7 @@
         <v>20</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -9703,28 +9748,28 @@
         <v>13</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J172" s="3">
         <v>227</v>
@@ -9736,7 +9781,7 @@
         <v>20</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -9750,22 +9795,22 @@
         <v>14</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J173" s="3">
         <v>212</v>
@@ -9777,7 +9822,7 @@
         <v>20</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -9791,22 +9836,22 @@
         <v>14</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J174" s="3">
         <v>129</v>
@@ -9818,7 +9863,7 @@
         <v>20</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -9826,28 +9871,28 @@
         <v>13</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J175" s="3">
         <v>174</v>
@@ -9859,7 +9904,7 @@
         <v>20</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9873,22 +9918,22 @@
         <v>14</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J176" s="3">
         <v>7</v>
@@ -9900,7 +9945,7 @@
         <v>20</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -9914,22 +9959,22 @@
         <v>14</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J177" s="3">
         <v>242</v>
@@ -9941,7 +9986,7 @@
         <v>20</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -9955,22 +10000,22 @@
         <v>14</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="J178" s="3">
         <v>167</v>
@@ -9982,7 +10027,7 @@
         <v>20</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -9996,22 +10041,22 @@
         <v>14</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J179" s="3">
         <v>14</v>
@@ -10023,7 +10068,7 @@
         <v>20</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="90" x14ac:dyDescent="0.2">
@@ -10037,22 +10082,22 @@
         <v>14</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J180" s="3">
         <v>340</v>
@@ -10064,7 +10109,7 @@
         <v>20</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -10078,22 +10123,22 @@
         <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="J181" s="3">
         <v>185</v>
@@ -10105,7 +10150,7 @@
         <v>20</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10119,22 +10164,22 @@
         <v>14</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H182" s="3">
         <v>0</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J182" s="3">
         <v>20</v>
@@ -10146,7 +10191,7 @@
         <v>20</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -10160,22 +10205,22 @@
         <v>14</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H183" s="3">
         <v>0</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="J183" s="3">
         <v>158</v>
@@ -10187,7 +10232,7 @@
         <v>20</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10201,22 +10246,22 @@
         <v>14</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H184" s="3">
         <v>0</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J184" s="3">
         <v>4</v>
@@ -10228,7 +10273,7 @@
         <v>20</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10242,22 +10287,22 @@
         <v>14</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H185" s="3">
         <v>0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J185" s="3">
         <v>6</v>
@@ -10269,7 +10314,7 @@
         <v>20</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10283,22 +10328,22 @@
         <v>14</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H186" s="3">
         <v>0</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J186" s="3">
         <v>2</v>
@@ -10310,7 +10355,7 @@
         <v>20</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10324,22 +10369,22 @@
         <v>14</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H187" s="3">
         <v>0</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J187" s="3">
         <v>15</v>
@@ -10351,7 +10396,7 @@
         <v>20</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10365,16 +10410,16 @@
         <v>14</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H188" s="3">
         <v>0</v>
@@ -10392,7 +10437,7 @@
         <v>20</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10406,22 +10451,22 @@
         <v>14</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H189" s="3">
         <v>0</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="J189" s="3">
         <v>23</v>
@@ -10433,7 +10478,7 @@
         <v>20</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10447,22 +10492,22 @@
         <v>14</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H190" s="3">
         <v>0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="J190" s="3">
         <v>13</v>
@@ -10474,7 +10519,7 @@
         <v>20</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10488,22 +10533,22 @@
         <v>14</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H191" s="3">
         <v>0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J191" s="3">
         <v>14</v>
@@ -10515,7 +10560,7 @@
         <v>20</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10529,22 +10574,22 @@
         <v>14</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H192" s="3">
         <v>0</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="J192" s="3">
         <v>10</v>
@@ -10556,7 +10601,7 @@
         <v>20</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10570,22 +10615,22 @@
         <v>14</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H193" s="3">
         <v>0</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="J193" s="3">
         <v>11</v>
@@ -10597,7 +10642,7 @@
         <v>20</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10611,22 +10656,22 @@
         <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H194" s="3">
         <v>0</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="J194" s="3">
         <v>5</v>
@@ -10638,7 +10683,7 @@
         <v>20</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10652,22 +10697,22 @@
         <v>14</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H195" s="3">
         <v>0</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J195" s="3">
         <v>23</v>
@@ -10679,7 +10724,7 @@
         <v>20</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10693,22 +10738,22 @@
         <v>14</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H196" s="3">
         <v>0</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="J196" s="3">
         <v>27</v>
@@ -10720,7 +10765,7 @@
         <v>20</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10734,22 +10779,22 @@
         <v>14</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H197" s="3">
         <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J197" s="3">
         <v>22</v>
@@ -10761,7 +10806,7 @@
         <v>20</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -10775,22 +10820,22 @@
         <v>14</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H198" s="3">
         <v>0</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="J198" s="3">
         <v>17</v>
@@ -10802,7 +10847,7 @@
         <v>20</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10816,22 +10861,22 @@
         <v>14</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H199" s="3">
         <v>0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="J199" s="3">
         <v>21</v>
@@ -10843,7 +10888,7 @@
         <v>20</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -10857,22 +10902,22 @@
         <v>14</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H200" s="3">
         <v>0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="J200" s="3">
         <v>185</v>
@@ -10884,7 +10929,7 @@
         <v>20</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="60" x14ac:dyDescent="0.2">
@@ -10898,22 +10943,22 @@
         <v>14</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H201" s="3">
         <v>0</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="J201" s="3">
         <v>190</v>
@@ -10925,7 +10970,7 @@
         <v>20</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10939,22 +10984,22 @@
         <v>14</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H202" s="3">
         <v>0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J202" s="3">
         <v>19</v>
@@ -10966,7 +11011,7 @@
         <v>20</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -10980,22 +11025,22 @@
         <v>14</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H203" s="3">
         <v>0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J203" s="3">
         <v>20</v>
@@ -11007,7 +11052,7 @@
         <v>20</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="105" x14ac:dyDescent="0.2">
@@ -11015,28 +11060,28 @@
         <v>13</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H204" s="3">
         <v>0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J204" s="3">
         <v>108</v>
@@ -11048,7 +11093,7 @@
         <v>20</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -11062,22 +11107,22 @@
         <v>14</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H205" s="3">
         <v>0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J205" s="3">
         <v>258</v>
@@ -11089,7 +11134,7 @@
         <v>20</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="90" x14ac:dyDescent="0.2">
@@ -11103,22 +11148,22 @@
         <v>14</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H206" s="3">
         <v>0</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J206" s="3">
         <v>287</v>
@@ -11130,7 +11175,7 @@
         <v>20</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11144,22 +11189,22 @@
         <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H207" s="3">
         <v>0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J207" s="3">
         <v>11</v>
@@ -11171,7 +11216,7 @@
         <v>20</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11185,22 +11230,22 @@
         <v>14</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H208" s="3">
         <v>0</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="J208" s="3">
         <v>20</v>
@@ -11212,7 +11257,7 @@
         <v>20</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -11226,22 +11271,22 @@
         <v>14</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H209" s="3">
         <v>0</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J209" s="3">
         <v>160</v>
@@ -11253,7 +11298,7 @@
         <v>20</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11267,22 +11312,22 @@
         <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H210" s="3">
         <v>0</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J210" s="3">
         <v>13</v>
@@ -11294,7 +11339,7 @@
         <v>20</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -11308,22 +11353,22 @@
         <v>14</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H211" s="3">
         <v>0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J211" s="3">
         <v>90</v>
@@ -11335,7 +11380,7 @@
         <v>20</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="75" x14ac:dyDescent="0.2">
@@ -11349,22 +11394,22 @@
         <v>14</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H212" s="3">
         <v>0</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="J212" s="3">
         <v>173</v>
@@ -11376,7 +11421,7 @@
         <v>20</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -11390,22 +11435,22 @@
         <v>14</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H213" s="3">
         <v>0</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="J213" s="3">
         <v>167</v>
@@ -11417,7 +11462,7 @@
         <v>20</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11431,22 +11476,22 @@
         <v>14</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E214" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H214" s="3">
         <v>0</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J214" s="3">
         <v>5</v>
@@ -11458,7 +11503,7 @@
         <v>20</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11472,16 +11517,16 @@
         <v>14</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H215" s="3">
         <v>0</v>
@@ -11499,7 +11544,7 @@
         <v>20</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11513,16 +11558,16 @@
         <v>14</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H216" s="3">
         <v>0</v>
@@ -11540,7 +11585,7 @@
         <v>20</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11554,16 +11599,16 @@
         <v>14</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H217" s="3">
         <v>0</v>
@@ -11581,7 +11626,7 @@
         <v>20</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11595,16 +11640,16 @@
         <v>14</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H218" s="3">
         <v>0</v>
@@ -11622,7 +11667,7 @@
         <v>20</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11636,22 +11681,22 @@
         <v>14</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H219" s="3">
         <v>0</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J219" s="3">
         <v>27</v>
@@ -11663,7 +11708,7 @@
         <v>20</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11677,16 +11722,16 @@
         <v>14</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H220" s="3">
         <v>0</v>
@@ -11704,7 +11749,7 @@
         <v>20</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11718,16 +11763,16 @@
         <v>14</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H221" s="3">
         <v>0</v>
@@ -11745,7 +11790,7 @@
         <v>20</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11759,16 +11804,16 @@
         <v>14</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H222" s="3">
         <v>0</v>
@@ -11786,7 +11831,7 @@
         <v>20</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11800,16 +11845,16 @@
         <v>14</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H223" s="3">
         <v>0</v>
@@ -11827,7 +11872,7 @@
         <v>20</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11841,22 +11886,22 @@
         <v>14</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H224" s="3">
         <v>0</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J224" s="3">
         <v>10</v>
@@ -11868,7 +11913,7 @@
         <v>20</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11882,16 +11927,16 @@
         <v>14</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H225" s="3">
         <v>0</v>
@@ -11909,7 +11954,7 @@
         <v>20</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11923,22 +11968,22 @@
         <v>14</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H226" s="3">
         <v>0</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J226" s="3">
         <v>4</v>
@@ -11950,7 +11995,7 @@
         <v>20</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -11964,22 +12009,22 @@
         <v>14</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H227" s="3">
         <v>0</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J227" s="3">
         <v>3</v>
@@ -11991,7 +12036,7 @@
         <v>20</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12005,16 +12050,16 @@
         <v>14</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H228" s="3">
         <v>0</v>
@@ -12032,7 +12077,7 @@
         <v>20</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12046,16 +12091,16 @@
         <v>14</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H229" s="3">
         <v>0</v>
@@ -12073,7 +12118,7 @@
         <v>20</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12087,22 +12132,22 @@
         <v>14</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H230" s="3">
         <v>0</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J230" s="3">
         <v>4</v>
@@ -12114,7 +12159,7 @@
         <v>20</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12128,16 +12173,16 @@
         <v>14</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H231" s="3">
         <v>0</v>
@@ -12155,7 +12200,7 @@
         <v>20</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12169,16 +12214,16 @@
         <v>14</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H232" s="3">
         <v>0</v>
@@ -12196,7 +12241,7 @@
         <v>20</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12210,22 +12255,22 @@
         <v>14</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H233" s="3">
         <v>0</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J233" s="3">
         <v>4</v>
@@ -12237,7 +12282,7 @@
         <v>20</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12251,22 +12296,22 @@
         <v>14</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H234" s="3">
         <v>0</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J234" s="3">
         <v>4</v>
@@ -12278,7 +12323,7 @@
         <v>20</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12292,22 +12337,22 @@
         <v>14</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H235" s="3">
         <v>0</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J235" s="3">
         <v>27</v>
@@ -12319,7 +12364,7 @@
         <v>20</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12333,16 +12378,16 @@
         <v>14</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H236" s="3">
         <v>0</v>
@@ -12360,7 +12405,7 @@
         <v>20</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12374,22 +12419,22 @@
         <v>14</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H237" s="3">
         <v>0</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J237" s="3">
         <v>3</v>
@@ -12401,7 +12446,7 @@
         <v>20</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12415,22 +12460,22 @@
         <v>14</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H238" s="3">
         <v>0</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J238" s="3">
         <v>4</v>
@@ -12442,7 +12487,7 @@
         <v>20</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12456,16 +12501,16 @@
         <v>14</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H239" s="3">
         <v>0</v>
@@ -12483,7 +12528,7 @@
         <v>20</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12497,16 +12542,16 @@
         <v>14</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H240" s="3">
         <v>0</v>
@@ -12524,7 +12569,7 @@
         <v>20</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12538,22 +12583,22 @@
         <v>14</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H241" s="3">
         <v>0</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J241" s="3">
         <v>4</v>
@@ -12565,7 +12610,7 @@
         <v>20</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12579,22 +12624,22 @@
         <v>14</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H242" s="3">
         <v>0</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="J242" s="3">
         <v>3</v>
@@ -12606,7 +12651,7 @@
         <v>20</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12620,16 +12665,16 @@
         <v>14</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H243" s="3">
         <v>0</v>
@@ -12647,7 +12692,7 @@
         <v>20</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12661,22 +12706,22 @@
         <v>14</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H244" s="3">
         <v>0</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J244" s="3">
         <v>10</v>
@@ -12688,7 +12733,7 @@
         <v>20</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12702,22 +12747,22 @@
         <v>14</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H245" s="3">
         <v>0</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="J245" s="3">
         <v>4</v>
@@ -12729,7 +12774,7 @@
         <v>20</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12743,22 +12788,22 @@
         <v>14</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H246" s="3">
         <v>0</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="J246" s="3">
         <v>22</v>
@@ -12770,7 +12815,7 @@
         <v>20</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12784,16 +12829,16 @@
         <v>14</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H247" s="3">
         <v>0</v>
@@ -12811,7 +12856,7 @@
         <v>20</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12825,22 +12870,22 @@
         <v>14</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H248" s="3">
         <v>0</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J248" s="3">
         <v>5</v>
@@ -12852,7 +12897,7 @@
         <v>20</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12866,22 +12911,22 @@
         <v>14</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H249" s="3">
         <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="J249" s="3">
         <v>5</v>
@@ -12893,7 +12938,7 @@
         <v>20</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12907,22 +12952,22 @@
         <v>14</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H250" s="3">
         <v>0</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J250" s="3">
         <v>5</v>
@@ -12934,7 +12979,7 @@
         <v>20</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12948,22 +12993,22 @@
         <v>14</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H251" s="3">
         <v>0</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="J251" s="3">
         <v>20</v>
@@ -12975,7 +13020,7 @@
         <v>20</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -12989,22 +13034,22 @@
         <v>14</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H252" s="3">
         <v>0</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J252" s="3">
         <v>12</v>
@@ -13016,7 +13061,7 @@
         <v>20</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13030,22 +13075,22 @@
         <v>14</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H253" s="3">
         <v>0</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="J253" s="3">
         <v>3</v>
@@ -13057,7 +13102,7 @@
         <v>20</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13071,22 +13116,22 @@
         <v>14</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H254" s="3">
         <v>0</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J254" s="3">
         <v>5</v>
@@ -13098,7 +13143,7 @@
         <v>20</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13112,22 +13157,22 @@
         <v>14</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H255" s="3">
         <v>0</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="J255" s="3">
         <v>7</v>
@@ -13139,7 +13184,7 @@
         <v>20</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="45" x14ac:dyDescent="0.2">
@@ -13153,22 +13198,22 @@
         <v>14</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H256" s="3">
         <v>0</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="J256" s="3">
         <v>108</v>
@@ -13180,7 +13225,7 @@
         <v>20</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.2">
@@ -13194,22 +13239,22 @@
         <v>14</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E257" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H257" s="3">
         <v>0</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="J257" s="3">
         <v>87</v>
@@ -13221,7 +13266,7 @@
         <v>20</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13235,22 +13280,22 @@
         <v>14</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H258" s="3">
         <v>0</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="J258" s="3">
         <v>8</v>
@@ -13262,7 +13307,7 @@
         <v>20</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13276,22 +13321,22 @@
         <v>14</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H259" s="3">
         <v>0</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="J259" s="3">
         <v>3</v>
@@ -13300,10 +13345,10 @@
         <v>1.7954000000000001E-2</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13317,16 +13362,16 @@
         <v>14</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H260" s="3">
         <v>0</v>
@@ -13341,10 +13386,10 @@
         <v>2.9923999999999999E-2</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13358,22 +13403,22 @@
         <v>14</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H261" s="3">
         <v>0</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="J261" s="3">
         <v>9</v>
@@ -13382,10 +13427,10 @@
         <v>5.3863000000000001E-2</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13399,22 +13444,22 @@
         <v>14</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H262" s="3">
         <v>0</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J262" s="3">
         <v>2</v>
@@ -13423,10 +13468,10 @@
         <v>1.197E-2</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -13440,22 +13485,22 @@
         <v>14</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H263" s="3">
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J263" s="3">
         <v>4</v>
@@ -13464,10 +13509,584 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J264" s="3">
+        <v>4</v>
+      </c>
+      <c r="K264" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J265" s="3">
+        <v>3</v>
+      </c>
+      <c r="K265" s="4">
+        <v>1.6711229946524062E-2</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J266" s="3">
+        <v>4</v>
+      </c>
+      <c r="K266" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H267" s="3">
+        <v>0</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J267" s="3">
+        <v>4</v>
+      </c>
+      <c r="K267" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H268" s="3">
+        <v>0</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J268" s="3">
+        <v>4</v>
+      </c>
+      <c r="K268" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H269" s="3">
+        <v>0</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J269" s="3">
+        <v>4</v>
+      </c>
+      <c r="K269" s="4">
+        <v>2.2281639928698752E-2</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J270" s="3">
+        <v>6</v>
+      </c>
+      <c r="K270" s="4">
+        <v>2.5930247633864902E-2</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H271" s="3">
+        <v>0</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="J271" s="3">
+        <v>3</v>
+      </c>
+      <c r="K271" s="4">
+        <v>1.2965123816932451E-2</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J272" s="3">
+        <v>4</v>
+      </c>
+      <c r="K272" s="4">
+        <v>4.7097609796302835E-2</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J273" s="3">
+        <v>4</v>
+      </c>
+      <c r="K273" s="4">
+        <v>4.7097609796302835E-2</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H274" s="3">
+        <v>0</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="J274" s="3">
+        <v>3</v>
+      </c>
+      <c r="K274" s="4">
+        <v>3.5323207347227124E-2</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H275" s="3">
+        <v>0</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J275" s="3">
+        <v>4</v>
+      </c>
+      <c r="K275" s="4">
+        <v>4.7097609796302835E-2</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J276" s="3">
+        <v>4</v>
+      </c>
+      <c r="K276" s="4">
+        <v>4.7097609796302835E-2</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J277" s="3">
+        <v>4</v>
+      </c>
+      <c r="K277" s="4">
+        <v>4.7097609796302835E-2</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/zm_5_4.xlsx
+++ b/data/coded_segments/zm_5_4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4098" windowHeight="3672"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="763">
   <si>
     <t>Color</t>
   </si>
@@ -2353,6 +2353,18 @@
   </si>
   <si>
     <t>7/23/2019 10:16:00</t>
+  </si>
+  <si>
+    <t>1: 141</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>dattaray</t>
+  </si>
+  <si>
+    <t>9/17/2019 12:17:14</t>
   </si>
 </sst>
 </file>
@@ -2367,19 +2379,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2786,7 +2795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M295"/>
+  <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14897,6 +14906,47 @@
         <v>758</v>
       </c>
     </row>
+    <row r="296" spans="1:13" ht="15.6">
+      <c r="A296" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H296" s="3">
+        <v>0</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="J296" s="3">
+        <v>5</v>
+      </c>
+      <c r="K296" s="4">
+        <v>1.3750618777845003E-2</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
